--- a/000_management/QA.xlsx
+++ b/000_management/QA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="QA一覧" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>NO</t>
     <phoneticPr fontId="4"/>
@@ -157,6 +157,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>https://www.ablenet.jp/
+http://autofx-now.com/first-mt4/vps</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +224,14 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -299,10 +312,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,8 +375,17 @@
     <xf numFmtId="56" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,20 +393,15 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="54">
@@ -1300,7 +1318,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1333,50 +1351,50 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:47" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:47" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:47" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:47" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1391,7 +1409,9 @@
       <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" s="14">
         <v>42845</v>
       </c>
@@ -1402,43 +1422,43 @@
         <v>42844</v>
       </c>
       <c r="J4" s="14"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
     </row>
     <row r="5" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
@@ -1454,43 +1474,43 @@
       <c r="H5" s="11"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
     </row>
     <row r="6" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
@@ -1506,43 +1526,43 @@
       <c r="H6" s="11"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="25"/>
-      <c r="AU6" s="25"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
     </row>
     <row r="7" spans="1:47" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
@@ -1558,43 +1578,43 @@
       <c r="H7" s="11"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="20"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="20"/>
     </row>
     <row r="8" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
@@ -1610,43 +1630,43 @@
       <c r="H8" s="11"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="25"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="20"/>
     </row>
     <row r="9" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
@@ -1657,48 +1677,48 @@
       <c r="C9" s="11"/>
       <c r="D9" s="13"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="26"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="14"/>
       <c r="H9" s="11"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
+      <c r="AU9" s="20"/>
     </row>
     <row r="10" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
@@ -1714,43 +1734,43 @@
       <c r="H10" s="11"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="25"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="25"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
     </row>
     <row r="11" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
@@ -1766,43 +1786,43 @@
       <c r="H11" s="11"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="25"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="25"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
     </row>
     <row r="12" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
@@ -1818,43 +1838,43 @@
       <c r="H12" s="11"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="25"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="25"/>
-      <c r="AU12" s="25"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
     </row>
     <row r="13" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
@@ -1870,43 +1890,43 @@
       <c r="H13" s="11"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="25"/>
-      <c r="AQ13" s="25"/>
-      <c r="AR13" s="25"/>
-      <c r="AS13" s="25"/>
-      <c r="AT13" s="25"/>
-      <c r="AU13" s="25"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
     </row>
     <row r="14" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
@@ -1922,43 +1942,43 @@
       <c r="H14" s="11"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="20"/>
     </row>
     <row r="15" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
@@ -1974,43 +1994,43 @@
       <c r="H15" s="11"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="20"/>
+      <c r="AU15" s="20"/>
     </row>
     <row r="16" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
@@ -2026,43 +2046,43 @@
       <c r="H16" s="11"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="25"/>
-      <c r="AR16" s="25"/>
-      <c r="AS16" s="25"/>
-      <c r="AT16" s="25"/>
-      <c r="AU16" s="25"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="20"/>
+      <c r="AS16" s="20"/>
+      <c r="AT16" s="20"/>
+      <c r="AU16" s="20"/>
     </row>
     <row r="17" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
@@ -2680,16 +2700,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:H4 A14:H16 A4:A16 A5:F7">
@@ -2970,8 +2990,11 @@
       <formula1>"対応中,完了,保留"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://www.ablenet.jp/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/000_management/QA.xlsx
+++ b/000_management/QA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="QA一覧" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>NO</t>
     <phoneticPr fontId="4"/>
@@ -160,6 +160,38 @@
   <si>
     <t>https://www.ablenet.jp/
 http://autofx-now.com/first-mt4/vps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OPEN[]やCLOSE[]で取得する値はBITとASKのどちらの値？</t>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻合わせで夏場時間の考慮はどうするのか？</t>
+    <rPh sb="0" eb="2">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナツバ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウリョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -381,11 +413,11 @@
     <xf numFmtId="56" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,11 +425,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1318,7 +1350,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1351,7 +1383,7 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:47" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -1369,21 +1401,21 @@
       <c r="F2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="23" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:47" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="24"/>
       <c r="C3" s="25"/>
       <c r="D3" s="24"/>
@@ -1409,7 +1441,7 @@
       <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="14">
@@ -1467,7 +1499,9 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
@@ -1519,7 +1553,9 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
@@ -2700,16 +2736,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:H4 A14:H16 A4:A16 A5:F7">

--- a/000_management/QA.xlsx
+++ b/000_management/QA.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>NO</t>
     <phoneticPr fontId="4"/>
@@ -191,6 +191,16 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>コウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックテストでの効率的なチャートの見方</t>
+    <rPh sb="8" eb="11">
+      <t>コウリツテキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ミカタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,8 +426,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,11 +438,8 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1350,7 +1360,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1383,48 +1393,48 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:47" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:47" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:47" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
@@ -1607,7 +1617,9 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
@@ -2736,16 +2748,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:H4 A14:H16 A4:A16 A5:F7">

--- a/000_management/QA.xlsx
+++ b/000_management/QA.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>NO</t>
     <phoneticPr fontId="4"/>
@@ -202,6 +202,14 @@
     <rPh sb="17" eb="19">
       <t>ミカタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -426,11 +434,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,15 +443,39 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="57">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1356,11 +1385,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1393,48 +1422,48 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:47" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:47" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:47" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
@@ -1508,11 +1537,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="19"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="11"/>
@@ -1562,11 +1595,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="19"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
       <c r="H6" s="11"/>
@@ -1616,11 +1653,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
       <c r="H7" s="11"/>
@@ -2748,285 +2789,285 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:H4 A14:H16 A4:A16 A5:F7">
-    <cfRule type="expression" dxfId="53" priority="499" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="499" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="52" priority="392" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="392" stopIfTrue="1">
       <formula>$G16&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="51" priority="390" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="390" stopIfTrue="1">
       <formula>($B16="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="50" priority="368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="368" stopIfTrue="1">
       <formula>($B16="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A16">
-    <cfRule type="expression" dxfId="49" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="72" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="48" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="71" stopIfTrue="1">
       <formula>$G4&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="47" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="70" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="46" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="69" stopIfTrue="1">
       <formula>($B4="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="45" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="67" stopIfTrue="1">
       <formula>$G15&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="44" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="66" stopIfTrue="1">
       <formula>($B15="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="43" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="65" stopIfTrue="1">
       <formula>($B15="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="42" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="63" stopIfTrue="1">
       <formula>$G14&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="41" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="62" stopIfTrue="1">
       <formula>($B14="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="40" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="61" stopIfTrue="1">
       <formula>($B14="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="39" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="57" stopIfTrue="1">
       <formula>($B7="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="38" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
       <formula>$G6&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="37" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="43" stopIfTrue="1">
       <formula>($B6="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="36" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="49" stopIfTrue="1">
       <formula>($B5="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="expression" dxfId="35" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="48" stopIfTrue="1">
       <formula>($B5="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="34" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="47" stopIfTrue="1">
       <formula>$G5&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="33" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="46" stopIfTrue="1">
       <formula>($B5="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="expression" dxfId="32" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="45" stopIfTrue="1">
       <formula>($B6="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:H13 A12 F12 C12:D12">
-    <cfRule type="expression" dxfId="30" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="42" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A13">
-    <cfRule type="expression" dxfId="29" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="41" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="28" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="40" stopIfTrue="1">
       <formula>$G13&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="39" stopIfTrue="1">
       <formula>($B13="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="38" stopIfTrue="1">
       <formula>($B13="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
       <formula>$G10&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
       <formula>($B10="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:H10 A11 C11:H11">
-    <cfRule type="expression" dxfId="23" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="34" stopIfTrue="1">
       <formula>($B10="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A11">
-    <cfRule type="expression" dxfId="22" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="33" stopIfTrue="1">
       <formula>($B10="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="21" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="32" stopIfTrue="1">
       <formula>$G11&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="20" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="30" stopIfTrue="1">
       <formula>($B11="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="19" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
       <formula>($B10="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F9 A8:A9">
-    <cfRule type="expression" dxfId="18" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="26" stopIfTrue="1">
       <formula>($B8="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
       <formula>($B8="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="16" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
       <formula>($B9="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
       <formula>($B8="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
       <formula>($B8="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>($B9="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>$G7&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I9">
-    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
       <formula>($B7="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H9">
-    <cfRule type="expression" dxfId="10" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
       <formula>($B7="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>($B8="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>($B9="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>$G12&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I12">
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>($B11="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>($B12="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>($B6="済")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>($B11="済")</formula>
     </cfRule>
   </conditionalFormatting>
